--- a/rpa/range_chart.xlsx
+++ b/rpa/range_chart.xlsx
@@ -601,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -612,10 +612,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -623,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -634,10 +634,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -645,10 +645,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -667,10 +667,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -678,10 +678,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C9" t="n">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -700,10 +700,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/rpa/range_chart.xlsx
+++ b/rpa/range_chart.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -125,14 +125,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="20"/>
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -150,14 +150,14 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -172,14 +172,14 @@
           <idx val="1"/>
           <order val="1"/>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -202,8 +202,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -229,8 +229,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -271,9 +271,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -601,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -612,10 +612,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -623,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -634,10 +634,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -645,10 +645,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -667,10 +667,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -678,10 +678,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -700,10 +700,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
